--- a/src/ExcelsiorSyncfusion.Tests/ValueRenderedTests.TestNullables.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/ValueRenderedTests.TestNullables.verified.xlsx
@@ -167,7 +167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="28.5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -178,7 +178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="42.75">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>

--- a/src/ExcelsiorSyncfusion.Tests/ValueRenderedTests.TestNullables.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/ValueRenderedTests.TestNullables.verified.xlsx
@@ -152,8 +152,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="1" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -167,7 +167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.5">
+    <row r="2" spans="1:3" ht="42.75">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -178,7 +178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="42.75">
+    <row r="3" spans="1:3" ht="57">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
